--- a/docs/to_do.xlsx
+++ b/docs/to_do.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="439">
   <si>
     <t xml:space="preserve">Fonctionnalités</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">Recuperation des parametres </t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en forme avec SASS </t>
+    <t xml:space="preserve">Mise en forme avec CSS </t>
   </si>
   <si>
     <t xml:space="preserve">Création fonction login dans Utilisateur </t>
@@ -193,13 +193,13 @@
     <t xml:space="preserve">Dynamisation du contenu du slider avec les evenements recuperees</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en forme template avec SASS</t>
+    <t xml:space="preserve">Mise en forme template avec CSS</t>
   </si>
   <si>
     <t xml:space="preserve">Création view v_evenement_passé</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en forme slider avec SASS</t>
+    <t xml:space="preserve">Mise en forme slider avec CSS</t>
   </si>
   <si>
     <t xml:space="preserve">Information éventement calendrier</t>
@@ -655,7 +655,7 @@
     <t xml:space="preserve">Metier/Base</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">**Affichage client**</t>
   </si>
   <si>
     <t xml:space="preserve">Creation classe Administrateur</t>
@@ -673,6 +673,15 @@
     <t xml:space="preserve">Appel de la fonction login( ) dans Administrateur</t>
   </si>
   <si>
+    <t xml:space="preserve">Validation inscription partenaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation liste inscription partenaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en forme</t>
+  </si>
+  <si>
     <t xml:space="preserve">Creation  croquis formulaire d’inscription</t>
   </si>
   <si>
@@ -685,9 +694,6 @@
     <t xml:space="preserve">Recuperation des parametres de la formulaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en forme</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verification des paramtres</t>
   </si>
   <si>
@@ -784,6 +790,102 @@
     <t xml:space="preserve">Redirection sur page precedente</t>
   </si>
   <si>
+    <t xml:space="preserve">Iinsertion Information(hotel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation croquis formulaire d’insertion hotel HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation table chambre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification des parametres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation instance Hotel + appel fonction insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion chambre hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation formulaire de creation chambre HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation classe Chambre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation fonction inserer_chambre(Chambre ch) dans Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation instance Chambre + appel fonction inserer_chambre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion information(transport)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation fonction insert( ) dans Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation instance Transport + appel fonction inserer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion information(Guide)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation fonction insert() dans Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation instance Guide + appel fonction inserer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion information (attraction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation fonction insert dans Attraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation instance Attraction + appel fonction inserer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation tableau des nombres des clients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation fonction get_statistique( ) dans Partenaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation view v_statistique_partenaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperation du partenaire dans la session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appel fonction get_statistique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation affichage benefice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation fonction get_benefice( ) dans Partenaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation view v_benefice_partenaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appel fonction get_benefice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation de l’affichage du benefice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistique par type </t>
+  </si>
+  <si>
     <t xml:space="preserve">Client</t>
   </si>
   <si>
@@ -797,9 +899,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mise a jour des disponibilites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation inscription partenaire</t>
   </si>
   <si>
     <t xml:space="preserve">Notification pour les nouvelles reservations</t>
@@ -1393,7 +1492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1468,6 +1567,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1683,8 +1786,8 @@
   </sheetPr>
   <dimension ref="A1:N200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C74" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4293,34 +4396,34 @@
       <c r="N91" s="8"/>
     </row>
     <row r="92" s="2" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="9"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
+      <c r="B92" s="0"/>
+      <c r="C92" s="0"/>
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="0"/>
+      <c r="N92" s="0"/>
     </row>
     <row r="93" s="2" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="9"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
+      <c r="B93" s="0"/>
+      <c r="C93" s="0"/>
+      <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
+      <c r="F93" s="0"/>
+      <c r="G93" s="0"/>
+      <c r="H93" s="0"/>
+      <c r="I93" s="0"/>
+      <c r="J93" s="0"/>
+      <c r="K93" s="0"/>
+      <c r="L93" s="0"/>
+      <c r="M93" s="0"/>
+      <c r="N93" s="0"/>
     </row>
     <row r="94" s="2" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="9"/>
@@ -5969,7 +6072,7 @@
   </sheetPr>
   <dimension ref="B1:N131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5977,8 +6080,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="48.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="71.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="68.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.64"/>
@@ -6091,8 +6194,12 @@
       <c r="N4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -6107,7 +6214,9 @@
     </row>
     <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>217</v>
+      </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -7996,6 +8105,9 @@
       <c r="N131" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8011,10 +8123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8065,25 +8177,25 @@
         <v>22</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D2" s="15" t="n">
         <v>10</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F2" s="15" t="n">
         <v>15</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H2" s="15" t="n">
         <v>15</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J2" s="15" t="n">
         <v>5</v>
@@ -8092,7 +8204,7 @@
     <row r="3" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" s="15" t="n">
         <v>20</v>
@@ -8102,7 +8214,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J3" s="15" t="n">
         <v>5</v>
@@ -8117,7 +8229,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J4" s="15" t="n">
         <v>5</v>
@@ -8133,7 +8245,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J5" s="15" t="n">
         <v>5</v>
@@ -8150,7 +8262,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F6" s="17" t="n">
         <f aca="false">SUM(F2:F5)</f>
@@ -8176,13 +8288,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>10</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F7" s="15" t="n">
         <v>15</v>
@@ -8190,7 +8302,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J7" s="15" t="n">
         <v>5</v>
@@ -8199,7 +8311,7 @@
     <row r="8" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>20</v>
@@ -8209,7 +8321,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J8" s="15" t="n">
         <v>5</v>
@@ -8239,7 +8351,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J10" s="15" t="n">
         <v>5</v>
@@ -8256,7 +8368,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F11" s="17" t="n">
         <f aca="false">SUM(F7:F10)</f>
@@ -8279,28 +8391,28 @@
     </row>
     <row r="12" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>15</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F12" s="15" t="n">
         <v>5</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H12" s="15" t="n">
         <v>10</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J12" s="15" t="n">
         <v>5</v>
@@ -8309,25 +8421,25 @@
     <row r="13" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>25</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F13" s="15" t="n">
         <v>20</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H13" s="15" t="n">
         <v>10</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J13" s="15" t="n">
         <v>5</v>
@@ -8339,13 +8451,13 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H14" s="15" t="n">
         <v>10</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J14" s="15" t="n">
         <v>5</v>
@@ -8378,7 +8490,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F16" s="17" t="n">
         <f aca="false">SUM(F12:F15)</f>
@@ -8401,28 +8513,28 @@
     </row>
     <row r="17" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>10</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F17" s="15" t="n">
         <v>15</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H17" s="15" t="n">
         <v>10</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J17" s="15" t="n">
         <v>5</v>
@@ -8431,7 +8543,7 @@
     <row r="18" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>20</v>
@@ -8439,13 +8551,13 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H18" s="15" t="n">
         <v>10</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J18" s="15" t="n">
         <v>5</v>
@@ -8459,13 +8571,13 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H19" s="15" t="n">
         <v>10</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J19" s="15" t="n">
         <v>20</v>
@@ -8482,7 +8594,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F20" s="17" t="n">
         <f aca="false">SUM(F17:F19)</f>
@@ -8505,16 +8617,16 @@
     </row>
     <row r="21" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>10</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F21" s="15" t="n">
         <v>15</v>
@@ -8522,7 +8634,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J21" s="15" t="n">
         <v>5</v>
@@ -8531,13 +8643,13 @@
     <row r="22" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="14"/>
       <c r="C22" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D22" s="15" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F22" s="15" t="n">
         <v>15</v>
@@ -8545,7 +8657,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J22" s="15" t="n">
         <v>10</v>
@@ -8561,7 +8673,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J23" s="15" t="n">
         <v>5</v>
@@ -8578,7 +8690,7 @@
         <v>30</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F24" s="17" t="n">
         <f aca="false">SUM(F21:F23)</f>
@@ -8600,24 +8712,46 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="15"/>
+      <c r="B25" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <v>20</v>
+      </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" s="15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="14"/>
@@ -8627,8 +8761,12 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="I27" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="14"/>
@@ -8642,26 +8780,56 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="B29" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="I30" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" s="15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="14"/>
@@ -8671,41 +8839,87 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="I31" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="C32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="17" t="n">
+        <f aca="false">SUM(D29:D31)</f>
+        <v>30</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="17" t="n">
+        <f aca="false">SUM(F29:F31)</f>
+        <v>20</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="17" t="n">
+        <f aca="false">SUM(H29:H31)</f>
+        <v>10</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="17" t="n">
+        <f aca="false">SUM(J29:J31)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="B33" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F33" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="I33" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="15" t="n">
+        <v>20</v>
+      </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="I34" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" s="15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="14"/>
@@ -8715,41 +8929,87 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
+      <c r="I35" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
+      <c r="C36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="17" t="n">
+        <f aca="false">SUM(D33:D35)</f>
+        <v>30</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="17" t="n">
+        <f aca="false">SUM(F33:F35)</f>
+        <v>10</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="17" t="n">
+        <f aca="false">SUM(H33:H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="17" t="n">
+        <f aca="false">SUM(J33:J35)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="B37" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="I37" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="C38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="15" t="n">
+        <v>20</v>
+      </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="I38" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38" s="15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="14"/>
@@ -8759,41 +9019,85 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="I39" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="J39" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="C40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="17" t="n">
+        <f aca="false">SUM(D37:D39)</f>
+        <v>30</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="17" t="n">
+        <f aca="false">SUM(F37:F39)</f>
+        <v>10</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="17" t="n">
+        <f aca="false">SUM(H37:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="17" t="n">
+        <f aca="false">SUM(J37:J39)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="B41" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>271</v>
+      </c>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="I41" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J41" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="C42" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="15" t="n">
+        <v>20</v>
+      </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="I42" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J42" s="15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="14"/>
@@ -8803,41 +9107,99 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
+      <c r="I43" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="J43" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="C44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="17" t="n">
+        <f aca="false">SUM(D41:D43)</f>
+        <v>30</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="17" t="n">
+        <f aca="false">SUM(F41:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="17" t="n">
+        <f aca="false">SUM(H41:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="17" t="n">
+        <f aca="false">SUM(J41:J43)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
+      <c r="B45" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="J45" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
+      <c r="C46" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J46" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="14"/>
@@ -8847,41 +9209,89 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
+      <c r="I47" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="J47" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
+      <c r="C48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="17" t="n">
+        <f aca="false">SUM(D45:D47)</f>
+        <v>50</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="17" t="n">
+        <f aca="false">SUM(F45:F47)</f>
+        <v>20</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="17" t="n">
+        <f aca="false">SUM(H45:H47)</f>
+        <v>15</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="17" t="n">
+        <f aca="false">SUM(J45:J47)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
+      <c r="B49" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>281</v>
+      </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
+      <c r="G49" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="H49" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="J49" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="15" t="n">
+        <v>20</v>
+      </c>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
+      <c r="I50" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J50" s="15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="14"/>
@@ -8891,22 +9301,48 @@
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
+      <c r="I51" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="J51" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
+      <c r="C52" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="17" t="n">
+        <f aca="false">SUM(D49:D51)</f>
+        <v>30</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F52" s="17" t="n">
+        <f aca="false">SUM(F49:F51)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="17" t="n">
+        <f aca="false">SUM(H49:H51)</f>
+        <v>15</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="17" t="n">
+        <f aca="false">SUM(J49:J51)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="14"/>
+      <c r="B53" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -9775,12 +10211,19 @@
       <c r="J131" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B52"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -9799,8 +10242,8 @@
   </sheetPr>
   <dimension ref="C1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9814,13 +10257,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="2" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9828,16 +10271,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9845,134 +10288,143 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="2" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>266</v>
+        <v>299</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>270</v>
+        <v>303</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="2" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>272</v>
+        <v>305</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9980,12 +10432,12 @@
         <v>179</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -10006,7 +10458,7 @@
   </sheetPr>
   <dimension ref="B1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -10022,729 +10474,729 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="21.31"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>280</v>
+    <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="H2" s="22" t="s">
+      <c r="B2" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>290</v>
+      <c r="L2" s="24" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>301</v>
+        <v>332</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>312</v>
+        <v>343</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="2" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>321</v>
+        <v>352</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>323</v>
+      <c r="B6" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>326</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="L7" s="25" t="s">
         <v>330</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>296</v>
+        <v>371</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="L9" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>351</v>
+        <v>369</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="20" t="s">
-        <v>355</v>
+      <c r="B16" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>359</v>
+        <v>332</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>367</v>
+        <v>399</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>400</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="2" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="20" t="s">
-        <v>375</v>
+      <c r="B20" s="21" t="s">
+        <v>408</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>379</v>
+        <v>331</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>412</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="2" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>382</v>
+        <v>336</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="2" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>390</v>
+      <c r="C26" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>423</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="2" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="2" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="21" t="s">
-        <v>395</v>
+      <c r="C30" s="22" t="s">
+        <v>428</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="2" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>400</v>
+        <v>430</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="2" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="2" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -10765,7 +11217,7 @@
   </sheetPr>
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -10777,7 +11229,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -10810,18 +11262,18 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
